--- a/doc/import_person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/import_person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_project\doc\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -86,9 +86,6 @@
     <t>รักษาคม</t>
   </si>
   <si>
-    <t>แพทย์หญิง</t>
-  </si>
-  <si>
     <t>ผู้อำนวยการ</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>พุทธรัตน์</t>
   </si>
   <si>
-    <t>นักวิชาการสาธารณสุข</t>
-  </si>
-  <si>
-    <t>รองผู้อำนวยการ</t>
-  </si>
-  <si>
     <t>รวิสรา</t>
   </si>
   <si>
@@ -143,33 +134,21 @@
     <t>ศรีประพัฒน์</t>
   </si>
   <si>
-    <t>ผู้ช่วยผู้อำนวยการ</t>
-  </si>
-  <si>
     <t>จงจิตต์</t>
   </si>
   <si>
     <t>สุขปราโมทย์</t>
   </si>
   <si>
-    <t>นักจัดการงานทั่วไป</t>
-  </si>
-  <si>
     <t>ณรงค์ศักดิ์</t>
   </si>
   <si>
     <t>ทองธรรมชาติ</t>
   </si>
   <si>
-    <t>รักษาการหัวหน้ากลุ่ม</t>
-  </si>
-  <si>
     <t>ชำนาญการ</t>
   </si>
   <si>
-    <t>กลุ่มพัฒนาภาคีเครือข่าย</t>
-  </si>
-  <si>
     <t>สิริลักษณ์</t>
   </si>
   <si>
@@ -185,43 +164,262 @@
     <t>ศุขเขษม</t>
   </si>
   <si>
-    <t>นิรุจน์</t>
-  </si>
-  <si>
-    <t>พลเยี่ยม</t>
-  </si>
-  <si>
-    <t>สุพล</t>
-  </si>
-  <si>
-    <t>วังขุย</t>
-  </si>
-  <si>
-    <t>พยาบาลวิชาชีพ</t>
-  </si>
-  <si>
-    <t>กรกมล</t>
-  </si>
-  <si>
-    <t>ดวงใส</t>
-  </si>
-  <si>
     <t>พนักงานราชการ</t>
   </si>
   <si>
-    <t>เพ็ญศิริ</t>
-  </si>
-  <si>
-    <t>นาถวิล</t>
+    <t>3659900370111</t>
+  </si>
+  <si>
+    <t>ผู้อำนวยการสำนักงาน (ผู้อำนวยการเฉพาะด้าน (แพทย์)สูง)</t>
+  </si>
+  <si>
+    <t>สูง</t>
+  </si>
+  <si>
+    <t>วันเกษียณอายุ</t>
+  </si>
+  <si>
+    <t>3809800164640</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขเชี่ยวชาญ</t>
+  </si>
+  <si>
+    <t>วิชาการ</t>
+  </si>
+  <si>
+    <t>3240400341622</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>3100503700341</t>
+  </si>
+  <si>
+    <t>แพทย์หญิงชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>กลุ่มระบาดวิทยาและข่าวกรอง</t>
+  </si>
+  <si>
+    <t>3100902326167</t>
+  </si>
+  <si>
+    <t>กลุ่มปฏิบัติการควบคุมโรคและตอบโต้ภาวะฉุกเฉินทางด้านสาธารณสุข</t>
+  </si>
+  <si>
+    <t>3140900219177</t>
+  </si>
+  <si>
+    <t>นักวิชาการเงินและบัญชีชำนาญการ</t>
+  </si>
+  <si>
+    <t>กลุ่มบริหารทั่วไป</t>
+  </si>
+  <si>
+    <t>3200100374797</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการ</t>
+  </si>
+  <si>
+    <t>3779900050639</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>กลุ่มสื่อสารความเสี่ยงและพัฒนาพฤติกรรมสุขภาพ</t>
+  </si>
+  <si>
+    <t>3100203271185</t>
+  </si>
+  <si>
+    <t>กลุ่มแผนงานและประเมินผล</t>
+  </si>
+  <si>
+    <t>3101403047522</t>
+  </si>
+  <si>
+    <t>ลองเดช</t>
+  </si>
+  <si>
+    <t>รายณะสุข</t>
+  </si>
+  <si>
+    <t>3200600875248</t>
+  </si>
+  <si>
+    <t>สมปอง</t>
+  </si>
+  <si>
+    <t>โรจน์รุ่งศศิธร</t>
+  </si>
+  <si>
+    <t>ราชการ</t>
+  </si>
+  <si>
+    <t>3200900335451</t>
+  </si>
+  <si>
+    <t>วชิระ</t>
+  </si>
+  <si>
+    <t>มากเจริญ</t>
+  </si>
+  <si>
+    <t>กลุ่มงานบริการพื้นฐาน</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไประดับ บ2</t>
+  </si>
+  <si>
+    <t>ลูกจ้างประจำ</t>
+  </si>
+  <si>
+    <t>ระดับ บ2</t>
+  </si>
+  <si>
+    <t>3200101213355</t>
+  </si>
+  <si>
+    <t>สมชาย</t>
+  </si>
+  <si>
+    <t>เกิดปราง</t>
+  </si>
+  <si>
+    <t>3200101043077</t>
+  </si>
+  <si>
+    <t>วิชาญ</t>
+  </si>
+  <si>
+    <t>วงษ์สุนทร</t>
+  </si>
+  <si>
+    <t>กลุ่มงานสนับสนุน</t>
+  </si>
+  <si>
+    <t>ระดับ ส2</t>
+  </si>
+  <si>
+    <t>1420200008930</t>
+  </si>
+  <si>
+    <t>วมิลรัตน์</t>
+  </si>
+  <si>
+    <t>ปัสสาวัฒนะ</t>
+  </si>
+  <si>
+    <t>พนักงานขับรถยนต์ระดับ ส2</t>
+  </si>
+  <si>
+    <t>นักวิเคราะห์นโยบายและแผนกลุ่มงานบริหารทั่วไป</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0566</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2542</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2529</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2525</t>
+  </si>
+  <si>
+    <t>6 ม.ค. 2541</t>
+  </si>
+  <si>
+    <t>13 เม.ย. 2520</t>
+  </si>
+  <si>
+    <t>21 พ.ย. 2520</t>
+  </si>
+  <si>
+    <t>3 มิ.ย. 2534</t>
+  </si>
+  <si>
+    <t>2 มิ.ย. 2540</t>
+  </si>
+  <si>
+    <t>2 เม.ย. 2544</t>
+  </si>
+  <si>
+    <t>1 พ.ค. 2529</t>
+  </si>
+  <si>
+    <t>3 เม.ย. 2532</t>
+  </si>
+  <si>
+    <t>5 พ.ย. 2527</t>
+  </si>
+  <si>
+    <t>1 มิ.ย. 2533</t>
+  </si>
+  <si>
+    <t>19 ก.ย. 2542</t>
+  </si>
+  <si>
+    <t>19 เม.ย. 2553</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2578</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2567</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2563</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2572</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2561</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2573</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2577</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2585</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2564</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2569</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2570</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2576</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2588</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0_ ;\-0\ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,24 +436,24 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -281,22 +479,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,34 +781,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
-    <col min="13" max="13" width="33.875" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -637,23 +848,30 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1097</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -662,446 +880,761 @@
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8">
+        <v>40270</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="N3" s="8">
+        <v>57290</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1129</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="N4" s="8">
+        <v>56020</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1127</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="8">
+        <v>33830</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1175</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8">
+        <v>50340</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="8">
+        <v>43300</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3607</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N8" s="8">
+        <v>35530</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1185</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="8">
+        <v>26340</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1187</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="8">
+        <v>22750</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1191</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N11" s="8">
+        <v>43120</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="8">
+        <v>44720</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="8">
+        <v>17270</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="8">
+        <v>17270</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="8">
+        <v>19100</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="N16" s="8">
+        <v>20650</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="F21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="I26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
